--- a/Assets/Resources/sentences.xlsx
+++ b/Assets/Resources/sentences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvalkalugny/Code/ggj/CardMatchGame/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D9F3E0-3AF5-514A-B9EE-442C71D6D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B4D07-AD03-4144-84DE-8838338A3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19660" xr2:uid="{7CADE316-DC6F-EE43-A029-673525BA3AA8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Liberal</t>
   </si>
@@ -397,13 +397,22 @@
   </si>
   <si>
     <t>I love contemporary art. I'd tell you my favorite artist, but you probably never heard of them.</t>
+  </si>
+  <si>
+    <t>F___ the patriarchy!</t>
+  </si>
+  <si>
+    <t>Virginia Wolfe, Oprah, Beyonce! Nuff said!</t>
+  </si>
+  <si>
+    <t>Women should have more representation in the media! Not including porn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,12 +444,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -462,13 +465,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,7 +788,7 @@
   <dimension ref="A1:AE125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,7 +797,7 @@
     <col min="2" max="2" width="64.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="110.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.5" bestFit="1" customWidth="1"/>
@@ -932,7 +934,9 @@
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1025,7 +1029,9 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1124,9 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
